--- a/medicine/Enfance/Christopher_Nicole/Christopher_Nicole.xlsx
+++ b/medicine/Enfance/Christopher_Nicole/Christopher_Nicole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christopher Nicole, né le 7 décembre 1930 à Georgetown au Guyana et mort le 2 novembre 2017 à Guernesey[1], est un écrivain britannique prolifique utilisant un grand nombre de pseudonymes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christopher Nicole, né le 7 décembre 1930 à Georgetown au Guyana et mort le 2 novembre 2017 à Guernesey, est un écrivain britannique prolifique utilisant un grand nombre de pseudonymes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'enfant de parents écossais. Son père est officier de police. Il fait des études au Queen's College (en), puis au Harrison College (en) à Bridgetown à la Barbade. Jusqu'en 1956, il travaille pour la Banque royale du Canada. En 1957, il s'installe à Guernesey et se consacre à l'écriture.
 En 1959, il publie son premier roman Off White. Écrivain prolifique, il utilise plusieurs pseudonymes, dont celui de Max Marlow (en) en commun avec sa seconde épouse Diana Bachmann (en) pour des romans historiques. Il aborde plusieurs genres littéraires : roman policier, roman d'espionnage, thriller, roman de guerre, romance, roman d'amour, roman pour la jeunesse, créant un grand nombre de séries ou de sagas.
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans signés Christopher Nicole
-Saga Amyot
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans signés Christopher Nicole</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Saga Amyot
 Amyot's Cay (1964)
 Les Derniers Jours des pirates, Fleuve noir, 1967
 Blood Amyot (1964)
@@ -668,14 +690,90 @@
 Ransom Island (2001)
 Demon (2003)
 The Falls of Death (2004)
-Cold Country, Hot Sun (2005)
-Romans signés Peter Grange
-King Creole (1966)
+Cold Country, Hot Sun (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans signés Peter Grange</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>King Creole (1966)
 The Devil's Emissary (1968)
 The Tumult at the Gate (1970)
-The Golden Goddess (1973)
-Romans signés Andrew York
-Série Jonas Wilde
+The Golden Goddess (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans signés Andrew York</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Jonas Wilde
 The Eliminator (1966)
 L'Éliminateur, Série noire no 1165 (1967)
 The Co-ordinator (1968)
@@ -699,20 +797,172 @@
 Tallant for Democracy (1996)
 Autres romans
 Dark Passage (1976)
-The Combination (1983)
-Roman signé Robin Cade
-The Fear Dealers (1974)
-Romans signés Mark Logan
-Saga Nicholas Minnett
+The Combination (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Roman signé Robin Cade</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Fear Dealers (1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans signés Mark Logan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Saga Nicholas Minnett
 Tricolour (1976) (autre titre The Captain's Woman)
 Guillotine (1976) (autre titre French Kiss)
-Brumaire (1978) (autre titre December Passions)
-Romans signés Christina Nicholson
-Power and the Passion (1977)
+Brumaire (1978) (autre titre December Passions)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Romans signés Christina Nicholson</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Power and the Passion (1977)
 The Savage Sands (1978)
-Queen of Paris (1979)
-Romans signés Alison York
-The Fire and the Rope (1979)
+Queen of Paris (1979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans signés Alison York</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Fire and the Rope (1979)
 The Scented Sword (1980)
 No Sad Song (1987)
 A Secret Truth (1987)
@@ -724,27 +974,217 @@
 Distant Shadows (1992)
 Tomorrow's Harvest (1992)
 Dear Enemy (1994)
-Free to Love (1995)
-Romans signés Leslie Arlen
-Saga The Borodins
+Free to Love (1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Romans signés Leslie Arlen</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Saga The Borodins
 Love and Honor (1980)
 War and Passion (1981)
 Fate and Dreams (1981)
 Hope and Glory (1982)
 Rage and Desire (1982)
-Fortune and Fury (1984)
-Roman signé Robin Nicholson ou C.R. Nicholson
-A Passion for Treason (1981) (autre titre The Friday Spy)
-Romans signés Daniel Adams
-Saga Grant
+Fortune and Fury (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Roman signé Robin Nicholson ou C.R. Nicholson</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A Passion for Treason (1981) (autre titre The Friday Spy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans signés Daniel Adams</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Saga Grant
 Brothers and Enemies (1982)
-Defiant Loves (1984)
-Romans signés Simon McKay
-Série Anderson Line
+Defiant Loves (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Romans signés Simon McKay</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Série Anderson Line
 The Seas of Fortune (1983)
-The Rivals (1985)
-Romans signés Caroline Gray
-Trilogie Helier L'Eree
+The Rivals (1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Romans signés Caroline Gray</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Trilogie Helier L'Eree
 Spawn of the Devil (1994)
 Sword of the Devil (1994)
 Death of the Devil (1994)
@@ -768,9 +1208,47 @@
 Golden Girl (1992)
 Spares (1993)
 Crossbow (1996)
-Masquerade (1997)
-Romans signés Alan Savage
-Série Eight Banners
+Masquerade (1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Romans signés Alan Savage</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Série Eight Banners
 The Eight Banners (1992)
 The Last Bannerman (1993)
 Saga Eleanor of Aquitaine
@@ -811,69 +1289,107 @@
 Ottoman (1990)
 Moghul (1991)
 Queen of the Night (1993)
-Queen of Lions (1994)
-Ouvrages non fictionnels signés Christopher Nicole
-West Indian Cricket: the Story of Cricket in the West Indies (1957)
+Queen of Lions (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ouvrages non fictionnels signés Christopher Nicole</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>West Indian Cricket: the Story of Cricket in the West Indies (1957)
 The West Indies: Their People and History  (1965)
 Introduction to Chess (1973)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christopher_Nicole</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>1967 : Le Coup du lapin (Danger Route), film britannique réalisé par Seth Holt, adaptation de L'Éliminateur (The Eliminator), avec Richard Johnson et Carol Lynley</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Christopher_Nicole</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christopher_Nicole</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Claude Mesplède, Les années "Série noire" : bibliographie critique d'une collection policière, vol. 3 : 1966-1972, Amiens, Editions Encrage, coll. « Travaux / 22 », 1994 (ISBN 978-2-906389-53-3), p. 98-99.
 Claude Mesplède et Jean-Jacques Schleret, SN, voyage au bout de la Noire : inventaire de 732 auteurs et de leurs œuvres publiés en séries Noire et Blème : suivi d'une filmographie complète, Paris, Futuropolis, 1982 (OCLC 11972030), p. 390
